--- a/assets/excel/2021_6-1-1.xlsx
+++ b/assets/excel/2021_6-1-1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1096D344-B8C2-44C4-8454-88D5A5E6E49D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF72CE9-9F89-4389-9C9B-0549450E3184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11205" xr2:uid="{3BD916D0-96AA-4162-A3E2-566C9670FBDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>https://www.integrationsmonitoring.niedersachsen.de</t>
+  </si>
+  <si>
+    <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Haushalte-Familien/Methoden/mikrozensus-2020.html</t>
   </si>
   <si>
     <r>
@@ -102,7 +108,7 @@
         <sz val="9"/>
         <rFont val="NDSFrutiger 55 Roman"/>
       </rPr>
-      <t xml:space="preserve"> 2005 bis 2019</t>
+      <t xml:space="preserve"> 2005 bis 2020</t>
     </r>
     <r>
       <rPr>
@@ -110,7 +116,7 @@
         <sz val="9"/>
         <rFont val="NDSFrutiger 55 Roman"/>
       </rPr>
-      <t>2)</t>
+      <t>2,3)</t>
     </r>
     <r>
       <rPr>
@@ -119,20 +125,12 @@
       </rPr>
       <t xml:space="preserve"> in Niedersachsen und Deutschland nach Zuwanderungsgeschichte und Nationalität</t>
     </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="NDSFrutiger 55 Roman"/>
-      </rPr>
-      <t>3)</t>
-    </r>
-  </si>
-  <si>
-    <t>Quelle: Ergebnisse des Mikrozensus, IT.NRW, Amtliche Sozialberichterstattung</t>
-  </si>
-  <si>
-    <t>3) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes: https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Haushalte-Familien/Methoden/mikrozensus-2020.html</t>
+  </si>
+  <si>
+    <t>3) Erstergebnisse des Mikrozensus 2020. Die Ergebnisse des Mikrozensus 2020 sind nur eingeschränkt mit Vorjahreswerten vergleichbar und zudem nicht in der gewohnten fachlichen und regionalen Auswertungstiefe belastbar. Weitere Informationen dazu finden Sie auf der Informationsseite des Statistischen Bundesamtes:</t>
+  </si>
+  <si>
+    <t>Quelle: Ergebnisse des Mikrozensus, IT.NRW.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -250,17 +248,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -275,15 +262,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -321,107 +299,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -440,6 +439,139 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="2019_Downloadtabelle"/>
+      <sheetName val="2019_6_1_1"/>
+      <sheetName val="2018_D1_Rand"/>
+      <sheetName val="A1.1.09 NI_Bund"/>
+      <sheetName val="A1.2.09 NI_Land"/>
+      <sheetName val="A2.0 DE_Bund"/>
+      <sheetName val="A3.9 NI_Land"/>
+      <sheetName val="2020_A3.9 NI_Land"/>
+      <sheetName val="2020_A2_Bund"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="P6">
+            <v>15.9</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="P54">
+            <v>35.200000000000003</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="P55">
+            <v>13.2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="P57">
+            <v>27.8</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="P58">
+            <v>11.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="6">
+          <cell r="P6">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="P54">
+            <v>40.799999999999997</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="P55">
+            <v>13.4</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="P57">
+            <v>30.4</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="P58">
+            <v>11.9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="6">
+          <cell r="B6">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>44.2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>32.5</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>12.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="6">
+          <cell r="B6">
+            <v>16.100000000000001</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>35.799999999999997</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>13.3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>27.9</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>11.8</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,58 +872,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D21238-0549-42DB-A6FD-8D520D9B7866}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B1:O30"/>
+  <dimension ref="B1:P31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:M24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="4" max="14" width="8.7109375" customWidth="1"/>
+    <col min="4" max="16" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -803,759 +935,835 @@
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-    </row>
-    <row r="7" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="4">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="29">
         <v>2005</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="29">
         <v>2007</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="29">
         <v>2009</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="29">
         <v>2010</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="29">
         <v>2012</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="29">
         <v>2013</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="29">
         <v>2014</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="29">
         <v>2015</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="29">
         <v>2016</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="29">
         <v>2017</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="30">
         <v>2018</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="30">
         <v>2019</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="34" t="s">
+      <c r="P7" s="31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-    </row>
-    <row r="9" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>7</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="4">
         <v>8</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="4">
         <v>9</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="4">
         <v>10</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="4">
         <v>11</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="4">
         <v>12</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="5">
         <v>13</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="P9" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>13.1</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>12.8</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="7">
         <v>13</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="7">
         <v>12.9</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="7">
         <v>13.9</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="7">
         <v>14.5</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="7">
         <v>13.8</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="7">
         <v>14</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="7">
         <v>13.5</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="7">
         <v>13.3</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="8">
         <v>12.5</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="8">
+        <f>'[1]A3.9 NI_Land'!P55</f>
         <v>13.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="P10" s="8">
+        <f>'[1]2020_A3.9 NI_Land'!B55</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>43</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>40.299999999999997</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>37.9</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>36.700000000000003</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="7">
         <v>36.5</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="7">
         <v>36</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="7">
         <v>36.6</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="7">
         <v>40.5</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="7">
         <v>43</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="7">
         <v>41</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="8">
         <v>38.5</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="8">
+        <f>'[1]A3.9 NI_Land'!P54</f>
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="P11" s="8">
+        <f>'[1]2020_A3.9 NI_Land'!B54</f>
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>33.200000000000003</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <v>32.200000000000003</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="7">
         <v>29.7</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <v>29.1</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="7">
         <v>28.7</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="7">
         <v>28.5</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="7">
         <v>27.7</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="7">
         <v>30.2</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="7">
         <v>30.9</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="7">
         <v>30.1</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="8">
         <v>28.2</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="8">
+        <f>'[1]A3.9 NI_Land'!P57</f>
         <v>30.4</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="P12" s="8">
+        <f>'[1]2020_A3.9 NI_Land'!B57</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>11.7</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>11.3</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="7">
         <v>11.5</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>11.5</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="7">
         <v>12.4</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <v>13</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="7">
         <v>12.6</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="7">
         <v>12.7</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="7">
         <v>12.2</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="7">
         <v>11.9</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="8">
         <v>11.2</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="8">
+        <f>'[1]A3.9 NI_Land'!P58</f>
         <v>11.9</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="P13" s="8">
+        <f>'[1]2020_A3.9 NI_Land'!B58</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="34">
         <v>15.1</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="34">
         <v>14.7</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="34">
         <v>14.6</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="34">
         <v>14.5</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="34">
         <v>15.2</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="34">
         <v>15.8</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="34">
         <v>15.3</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="34">
         <v>15.9</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="34">
         <v>16</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="34">
         <v>15.8</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="35">
         <v>15</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="35">
+        <f>'[1]A3.9 NI_Land'!P6</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="P14" s="35">
+        <f>'[1]2020_A3.9 NI_Land'!B6</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>12.8</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>12.5</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="7">
         <v>13</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>12.9</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="7">
         <v>13.6</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="7">
         <v>13.9</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="7">
         <v>13.7</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="7">
         <v>13.8</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="7">
         <v>13.3</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="7">
         <v>13.1</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="8">
         <v>12.8</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="8">
+        <f>'[1]A2.0 DE_Bund'!P55</f>
         <v>13.2</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+      <c r="P15" s="8">
+        <f>'[1]2020_A2_Bund'!B55</f>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>34.299999999999997</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <v>32.6</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="7">
         <v>31.8</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <v>31.7</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="7">
         <v>31.5</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="7">
         <v>32</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="7">
         <v>32.5</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="7">
         <v>33.700000000000003</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="7">
         <v>35.5</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="7">
         <v>36.200000000000003</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="8">
         <v>34.799999999999997</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="8">
+        <f>'[1]A2.0 DE_Bund'!P54</f>
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="P16" s="8">
+        <f>'[1]2020_A2_Bund'!B54</f>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>28.2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>26.9</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="7">
         <v>26.6</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>26.2</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="7">
         <v>26.3</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="7">
         <v>26.6</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="7">
         <v>26.7</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="7">
         <v>27.7</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="7">
         <v>28</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="7">
         <v>28.6</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="8">
         <v>27.2</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="8">
+        <f>'[1]A2.0 DE_Bund'!P57</f>
         <v>27.8</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="P17" s="8">
+        <f>'[1]2020_A2_Bund'!B57</f>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="7">
         <v>11.6</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <v>11.3</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="7">
         <v>11.7</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="7">
         <v>11.7</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="7">
         <v>12.3</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="7">
         <v>12.6</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="7">
         <v>12.5</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="7">
         <v>12.5</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="7">
         <v>12.1</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="7">
         <v>11.8</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="8">
         <v>11.4</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="8">
+        <f>'[1]A2.0 DE_Bund'!P58</f>
         <v>11.7</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="P18" s="8">
+        <f>'[1]2020_A2_Bund'!B58</f>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" s="36" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="34">
         <v>14.7</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="34">
         <v>14.3</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="34">
         <v>14.6</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="34">
         <v>14.5</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="34">
         <v>15</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="34">
         <v>15.5</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="34">
         <v>15.4</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="34">
         <v>15.7</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="34">
         <v>15.7</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="34">
         <v>15.8</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="35">
         <v>15.5</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="35">
+        <f>'[1]A2.0 DE_Bund'!P6</f>
         <v>15.9</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="P19" s="35">
+        <f>'[1]2020_A2_Bund'!B6</f>
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="2:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="2:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="B24:M24"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D8:O8"/>
     <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B28:M28"/>
     <mergeCell ref="B29:M29"/>
     <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:M31"/>
     <mergeCell ref="B21:M21"/>
     <mergeCell ref="B22:M22"/>
-    <mergeCell ref="B24:M24"/>
-    <mergeCell ref="B25:M25"/>
     <mergeCell ref="B26:M26"/>
     <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B28:M28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{66CC8081-BF15-476D-9F54-240770BF8CA1}"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{CD7B017F-E303-4863-94EF-1473465E4927}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{7FA8158F-8A89-49DE-9B69-B2E67E92A419}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
